--- a/natmiOut/OldD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H2">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I2">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J2">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N2">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O2">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P2">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q2">
-        <v>0.5996887445606431</v>
+        <v>2.181253204995556</v>
       </c>
       <c r="R2">
-        <v>0.5996887445606431</v>
+        <v>19.63127884496</v>
       </c>
       <c r="S2">
-        <v>0.0001468769774569877</v>
+        <v>0.0003009039600564913</v>
       </c>
       <c r="T2">
-        <v>0.0001468769774569877</v>
+        <v>0.0003078994959643944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H3">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I3">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J3">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N3">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P3">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q3">
-        <v>1.420183966424417</v>
+        <v>4.288000434937334</v>
       </c>
       <c r="R3">
-        <v>1.420183966424417</v>
+        <v>38.59200391443601</v>
       </c>
       <c r="S3">
-        <v>0.0003478343229104924</v>
+        <v>0.0005915298181071232</v>
       </c>
       <c r="T3">
-        <v>0.0003478343229104924</v>
+        <v>0.0006052819404865925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H4">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I4">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J4">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N4">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O4">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P4">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q4">
-        <v>1.463508658512242</v>
+        <v>7.108299704905779</v>
       </c>
       <c r="R4">
-        <v>1.463508658512242</v>
+        <v>63.97469734415201</v>
       </c>
       <c r="S4">
-        <v>0.0003584454939235092</v>
+        <v>0.0009805902063895857</v>
       </c>
       <c r="T4">
-        <v>0.0003584454939235092</v>
+        <v>0.001003387360665816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H5">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I5">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J5">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N5">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O5">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P5">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q5">
-        <v>1.063533037524628</v>
+        <v>6.400297591197778</v>
       </c>
       <c r="R5">
-        <v>1.063533037524628</v>
+        <v>57.60267832077999</v>
       </c>
       <c r="S5">
-        <v>0.000260482657702224</v>
+        <v>0.0008829212886980524</v>
       </c>
       <c r="T5">
-        <v>0.000260482657702224</v>
+        <v>0.0009034477968163896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H6">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I6">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J6">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N6">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O6">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P6">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q6">
-        <v>0.4693357308367156</v>
+        <v>1.302740008908667</v>
       </c>
       <c r="R6">
-        <v>0.4693357308367156</v>
+        <v>7.816440053452</v>
       </c>
       <c r="S6">
-        <v>0.0001149506542904478</v>
+        <v>0.0001797130322636914</v>
       </c>
       <c r="T6">
-        <v>0.0001149506542904478</v>
+        <v>0.0001225940485946309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H7">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I7">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J7">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N7">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O7">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P7">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q7">
-        <v>137.3562478550485</v>
+        <v>1.032167882208889</v>
       </c>
       <c r="R7">
-        <v>137.3562478550485</v>
+        <v>9.28951093988</v>
       </c>
       <c r="S7">
-        <v>0.03364156940207879</v>
+        <v>0.0001423875974088985</v>
       </c>
       <c r="T7">
-        <v>0.03364156940207879</v>
+        <v>0.0001456978813623799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H8">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I8">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J8">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N8">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P8">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q8">
-        <v>325.2873138962702</v>
+        <v>2.029079575770333</v>
       </c>
       <c r="R8">
-        <v>325.2873138962702</v>
+        <v>18.261716181933</v>
       </c>
       <c r="S8">
-        <v>0.07967002533154119</v>
+        <v>0.0002799116022939128</v>
       </c>
       <c r="T8">
-        <v>0.07967002533154119</v>
+        <v>0.0002864190994518703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H9">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I9">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J9">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N9">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O9">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P9">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q9">
-        <v>335.2106569615445</v>
+        <v>3.363643723578445</v>
       </c>
       <c r="R9">
-        <v>335.2106569615445</v>
+        <v>30.272793512206</v>
       </c>
       <c r="S9">
-        <v>0.0821004705398535</v>
+        <v>0.0004640147756922049</v>
       </c>
       <c r="T9">
-        <v>0.0821004705398535</v>
+        <v>0.0004748023772396988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H10">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I10">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J10">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N10">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O10">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P10">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q10">
-        <v>243.5978811162977</v>
+        <v>3.028617491579444</v>
       </c>
       <c r="R10">
-        <v>243.5978811162977</v>
+        <v>27.257557424215</v>
       </c>
       <c r="S10">
-        <v>0.0596624846102482</v>
+        <v>0.0004177978946348269</v>
       </c>
       <c r="T10">
-        <v>0.0596624846102482</v>
+        <v>0.000427511027601291</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H11">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I11">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J11">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N11">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O11">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P11">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q11">
-        <v>107.4994245877815</v>
+        <v>0.6164558947051667</v>
       </c>
       <c r="R11">
-        <v>107.4994245877815</v>
+        <v>3.698735368231</v>
       </c>
       <c r="S11">
-        <v>0.02632897599801803</v>
+        <v>8.50401134045921E-05</v>
       </c>
       <c r="T11">
-        <v>0.02632897599801803</v>
+        <v>5.801144003801777E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H12">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I12">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J12">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N12">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O12">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P12">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q12">
-        <v>347.6536875355658</v>
+        <v>181.3570607647111</v>
       </c>
       <c r="R12">
-        <v>347.6536875355658</v>
+        <v>1632.2135468824</v>
       </c>
       <c r="S12">
-        <v>0.08514804269740017</v>
+        <v>0.02501821321950492</v>
       </c>
       <c r="T12">
-        <v>0.08514804269740017</v>
+        <v>0.02559984667124071</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H13">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I13">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J13">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N13">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P13">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q13">
-        <v>823.3140898251532</v>
+        <v>356.5194327999267</v>
       </c>
       <c r="R13">
-        <v>823.3140898251532</v>
+        <v>3208.67489519934</v>
       </c>
       <c r="S13">
-        <v>0.2016477482829276</v>
+        <v>0.04918186890036484</v>
       </c>
       <c r="T13">
-        <v>0.2016477482829276</v>
+        <v>0.05032526870755148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H14">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I14">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J14">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N14">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O14">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P14">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q14">
-        <v>848.430434099232</v>
+        <v>591.0090302968757</v>
       </c>
       <c r="R14">
-        <v>848.430434099232</v>
+        <v>5319.08127267188</v>
       </c>
       <c r="S14">
-        <v>0.2077992940059485</v>
+        <v>0.0815297175211894</v>
       </c>
       <c r="T14">
-        <v>0.2077992940059485</v>
+        <v>0.08342515308266756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H15">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I15">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J15">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N15">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O15">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P15">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q15">
-        <v>616.5551474243956</v>
+        <v>532.1432452228555</v>
       </c>
       <c r="R15">
-        <v>616.5551474243956</v>
+        <v>4789.2892070057</v>
       </c>
       <c r="S15">
-        <v>0.1510079308818595</v>
+        <v>0.07340918029972407</v>
       </c>
       <c r="T15">
-        <v>0.1510079308818595</v>
+        <v>0.07511582635602737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H16">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I16">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J16">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N16">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O16">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P16">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q16">
-        <v>272.0849757437524</v>
+        <v>108.3143847835633</v>
       </c>
       <c r="R16">
-        <v>272.0849757437524</v>
+        <v>649.88630870138</v>
       </c>
       <c r="S16">
-        <v>0.06663960131180842</v>
+        <v>0.0149419733746698</v>
       </c>
       <c r="T16">
-        <v>0.06663960131180842</v>
+        <v>0.01019290024168181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H17">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I17">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J17">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N17">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O17">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P17">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q17">
-        <v>2.501700783947418</v>
+        <v>553.1831716452357</v>
       </c>
       <c r="R17">
-        <v>2.501700783947418</v>
+        <v>4978.64854480712</v>
       </c>
       <c r="S17">
-        <v>0.0006127216043002056</v>
+        <v>0.07631163892547738</v>
       </c>
       <c r="T17">
-        <v>0.0006127216043002056</v>
+        <v>0.07808576250362467</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H18">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I18">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J18">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N18">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P18">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q18">
-        <v>5.924532308433605</v>
+        <v>1087.471035083071</v>
       </c>
       <c r="R18">
-        <v>5.924532308433605</v>
+        <v>9787.239315747644</v>
       </c>
       <c r="S18">
-        <v>0.001451048408364786</v>
+        <v>0.1500166693870345</v>
       </c>
       <c r="T18">
-        <v>0.001451048408364786</v>
+        <v>0.1535043170646657</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H19">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I19">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J19">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N19">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O19">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P19">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q19">
-        <v>6.105268427201015</v>
+        <v>1802.721374464494</v>
       </c>
       <c r="R19">
-        <v>6.105268427201015</v>
+        <v>16224.49237018045</v>
       </c>
       <c r="S19">
-        <v>0.001495314663288935</v>
+        <v>0.2486854800774733</v>
       </c>
       <c r="T19">
-        <v>0.001495314663288935</v>
+        <v>0.2544670198263337</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H20">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I20">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J20">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N20">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O20">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P20">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q20">
-        <v>4.436703969954674</v>
+        <v>1623.166404002768</v>
       </c>
       <c r="R20">
-        <v>4.436703969954674</v>
+        <v>14608.49763602491</v>
       </c>
       <c r="S20">
-        <v>0.001086646489348047</v>
+        <v>0.223915865281712</v>
       </c>
       <c r="T20">
-        <v>0.001086646489348047</v>
+        <v>0.2291215510946649</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>220.0258686666667</v>
+      </c>
+      <c r="H21">
+        <v>660.0776060000001</v>
+      </c>
+      <c r="I21">
+        <v>0.744506308846773</v>
+      </c>
+      <c r="J21">
+        <v>0.7462694768413566</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.5015745</v>
+      </c>
+      <c r="N21">
+        <v>3.003149</v>
+      </c>
+      <c r="O21">
+        <v>0.06121728537891535</v>
+      </c>
+      <c r="P21">
+        <v>0.04166166152696218</v>
+      </c>
+      <c r="Q21">
+        <v>330.3852337302157</v>
+      </c>
+      <c r="R21">
+        <v>1982.311402381294</v>
+      </c>
+      <c r="S21">
+        <v>0.04557665517507579</v>
+      </c>
+      <c r="T21">
+        <v>0.03109082635206774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.0947135</v>
+      </c>
+      <c r="H22">
+        <v>4.189427</v>
+      </c>
+      <c r="I22">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J22">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.514173333333333</v>
+      </c>
+      <c r="N22">
+        <v>7.54252</v>
+      </c>
+      <c r="O22">
+        <v>0.1024996538225213</v>
+      </c>
+      <c r="P22">
+        <v>0.1046348067646137</v>
+      </c>
+      <c r="Q22">
+        <v>5.266472822673333</v>
+      </c>
+      <c r="R22">
+        <v>31.59883693604</v>
+      </c>
+      <c r="S22">
+        <v>0.0007265101200736217</v>
+      </c>
+      <c r="T22">
+        <v>0.0004956002124214964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.0947135</v>
+      </c>
+      <c r="H23">
+        <v>4.189427</v>
+      </c>
+      <c r="I23">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J23">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.942469</v>
+      </c>
+      <c r="N23">
+        <v>14.827407</v>
+      </c>
+      <c r="O23">
+        <v>0.2014981842389055</v>
+      </c>
+      <c r="P23">
+        <v>0.2056955588139349</v>
+      </c>
+      <c r="Q23">
+        <v>10.3530565376315</v>
+      </c>
+      <c r="R23">
+        <v>62.11833922578901</v>
+      </c>
+      <c r="S23">
+        <v>0.00142820453110505</v>
+      </c>
+      <c r="T23">
+        <v>0.0009742720017792438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.0947135</v>
+      </c>
+      <c r="H24">
+        <v>4.189427</v>
+      </c>
+      <c r="I24">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J24">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.193224666666667</v>
+      </c>
+      <c r="N24">
+        <v>24.579674</v>
+      </c>
+      <c r="O24">
+        <v>0.3340273643385007</v>
+      </c>
+      <c r="P24">
+        <v>0.3409854318354076</v>
+      </c>
+      <c r="Q24">
+        <v>17.16245831779967</v>
+      </c>
+      <c r="R24">
+        <v>102.974749906798</v>
+      </c>
+      <c r="S24">
+        <v>0.002367561757756092</v>
+      </c>
+      <c r="T24">
+        <v>0.00161506918850081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.30794933914735</v>
-      </c>
-      <c r="H21">
-        <v>1.30794933914735</v>
-      </c>
-      <c r="I21">
-        <v>0.005125266832032504</v>
-      </c>
-      <c r="J21">
-        <v>0.005125266832032504</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.49693231133141</v>
-      </c>
-      <c r="N21">
-        <v>1.49693231133141</v>
-      </c>
-      <c r="O21">
-        <v>0.09356306363084742</v>
-      </c>
-      <c r="P21">
-        <v>0.09356306363084742</v>
-      </c>
-      <c r="Q21">
-        <v>1.957911627354233</v>
-      </c>
-      <c r="R21">
-        <v>1.957911627354233</v>
-      </c>
-      <c r="S21">
-        <v>0.0004795356667305289</v>
-      </c>
-      <c r="T21">
-        <v>0.0004795356667305289</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.0947135</v>
+      </c>
+      <c r="H25">
+        <v>4.189427</v>
+      </c>
+      <c r="I25">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J25">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.377161666666666</v>
+      </c>
+      <c r="N25">
+        <v>22.131485</v>
+      </c>
+      <c r="O25">
+        <v>0.3007575122211572</v>
+      </c>
+      <c r="P25">
+        <v>0.3070225410590818</v>
+      </c>
+      <c r="Q25">
+        <v>15.45304013484917</v>
+      </c>
+      <c r="R25">
+        <v>92.71824080909499</v>
+      </c>
+      <c r="S25">
+        <v>0.002131747456388257</v>
+      </c>
+      <c r="T25">
+        <v>0.001454204783971824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.0947135</v>
+      </c>
+      <c r="H26">
+        <v>4.189427</v>
+      </c>
+      <c r="I26">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J26">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.5015745</v>
+      </c>
+      <c r="N26">
+        <v>3.003149</v>
+      </c>
+      <c r="O26">
+        <v>0.06121728537891535</v>
+      </c>
+      <c r="P26">
+        <v>0.04166166152696218</v>
+      </c>
+      <c r="Q26">
+        <v>3.14536837640575</v>
+      </c>
+      <c r="R26">
+        <v>12.581473505623</v>
+      </c>
+      <c r="S26">
+        <v>0.0004339036835014644</v>
+      </c>
+      <c r="T26">
+        <v>0.0001973294445799818</v>
       </c>
     </row>
   </sheetData>
